--- a/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
+++ b/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Desktop\20217003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194BCFAF-4603-48D3-9962-8BE0E38E62CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC67434-7B02-4DAE-8A03-053A0F0A80CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="143" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>作成者</t>
   </si>
@@ -91,6 +91,10 @@
     <rPh sb="0" eb="5">
       <t>ハセガワサラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WindowsFormsApp1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -315,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,6 +369,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,19 +408,7 @@
     <xf numFmtId="56" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,15 +502,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>22726</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>101850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -519,8 +526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9138286" y="8416290"/>
-          <a:ext cx="942840" cy="540000"/>
+          <a:off x="10624772" y="6985488"/>
+          <a:ext cx="956908" cy="548793"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -576,15 +583,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>146551</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>178050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -657,15 +664,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>13201</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -782,8 +789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2531746" y="1232535"/>
-          <a:ext cx="1636394" cy="619126"/>
+          <a:off x="2539629" y="1229119"/>
+          <a:ext cx="1641123" cy="613871"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -964,16 +971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>22777</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>169585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>136239</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>191492</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>56185</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>59684</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -988,8 +995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15097125" y="2376072"/>
-          <a:ext cx="941723" cy="598377"/>
+          <a:off x="12139328" y="2198136"/>
+          <a:ext cx="983213" cy="884337"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1036,7 +1043,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>登録済会員</a:t>
+            <a:t>会員</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -1177,15 +1184,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>167641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>79097</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1265,15 +1272,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>32386</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>31365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1350,15 +1357,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>135256</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>87496</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>135404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1433,16 +1440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>158694</xdr:colOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>54798</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>6752</xdr:colOff>
+      <xdr:rowOff>39661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>60915</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>18223</xdr:rowOff>
+      <xdr:rowOff>71233</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1460,8 +1467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15564346" y="3769579"/>
-          <a:ext cx="13710" cy="184540"/>
+          <a:off x="12627798" y="3849661"/>
+          <a:ext cx="6117" cy="227515"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1489,16 +1496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>162335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>191492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>6752</xdr:colOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>57935</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>186027</xdr:rowOff>
+      <xdr:rowOff>56244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>60916</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1516,8 +1523,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15567987" y="2974449"/>
-          <a:ext cx="10069" cy="186691"/>
+          <a:off x="12813152" y="3031357"/>
+          <a:ext cx="2981" cy="143604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1545,14 +1552,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>166339</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>55043</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>179564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>3838</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>60707</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7407</xdr:rowOff>
     </xdr:to>
@@ -1572,8 +1579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12106091" y="3679509"/>
-          <a:ext cx="5664" cy="206215"/>
+          <a:off x="10668614" y="3793621"/>
+          <a:ext cx="5664" cy="219729"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1610,7 +1617,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>21204</xdr:rowOff>
+      <xdr:rowOff>185531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1625,8 +1632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781176" y="5806688"/>
-          <a:ext cx="1472564" cy="592456"/>
+          <a:off x="1761298" y="5857709"/>
+          <a:ext cx="1454673" cy="761752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,16 +1674,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>会員</a:t>
-          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:solidFill>
@@ -1715,7 +1712,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>個人情報を登録する</a:t>
+            <a:t>データベースに登録する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1726,14 +1723,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>10512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1748,8 +1745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7360920" y="6732270"/>
-          <a:ext cx="1714500" cy="636270"/>
+          <a:off x="1665890" y="3121573"/>
+          <a:ext cx="1720280" cy="956442"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1796,7 +1793,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>苗字・名前・住所・電話番号</a:t>
+            <a:t>学籍番号・苗字・名前・住所・電話番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -1816,7 +1813,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>記入画面</a:t>
+            <a:t>記入兼登録ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2022,15 +2019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>165288</xdr:colOff>
+      <xdr:colOff>166027</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>39842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>4286</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>3547</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2048,8 +2045,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2498913" y="2802092"/>
-          <a:ext cx="5686" cy="695488"/>
+          <a:off x="2520344" y="2783042"/>
+          <a:ext cx="5686" cy="338531"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2078,13 +2075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
+      <xdr:colOff>164093</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>10512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
+      <xdr:colOff>3547</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>5964</xdr:rowOff>
     </xdr:to>
@@ -2104,8 +2101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2510790" y="4130040"/>
-          <a:ext cx="7620" cy="348864"/>
+          <a:off x="2518410" y="4078015"/>
+          <a:ext cx="7620" cy="373825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2134,13 +2131,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
+      <xdr:colOff>162837</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>133847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2858</xdr:colOff>
+      <xdr:colOff>3852</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>248</xdr:rowOff>
     </xdr:to>
@@ -2160,8 +2157,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2510790" y="5559287"/>
-          <a:ext cx="6668" cy="247401"/>
+          <a:off x="2481967" y="5606995"/>
+          <a:ext cx="6668" cy="250714"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2249,13 +2246,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>353</xdr:colOff>
+      <xdr:colOff>1180</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>93759</xdr:rowOff>
     </xdr:to>
@@ -2275,8 +2272,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3696759" y="3550678"/>
-          <a:ext cx="950736" cy="1505847"/>
+          <a:off x="3567562" y="3418403"/>
+          <a:ext cx="1129027" cy="1491809"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2307,14 +2304,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>43195</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>106768</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>168966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>113638</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>13926</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>33794</xdr:rowOff>
     </xdr:to>
@@ -2331,8 +2328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11307543" y="2183296"/>
-          <a:ext cx="1230008" cy="633455"/>
+          <a:off x="10067197" y="2215480"/>
+          <a:ext cx="1213443" cy="648600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2579,16 +2576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>143042</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>186027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>36113</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>121730</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25840</xdr:rowOff>
+      <xdr:rowOff>39661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2603,8 +2600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15051738" y="3161140"/>
-          <a:ext cx="1052636" cy="608439"/>
+          <a:off x="12083243" y="3229862"/>
+          <a:ext cx="1101344" cy="619799"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2644,6 +2641,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>IDor</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -2651,7 +2658,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員番号記入画面</a:t>
+            <a:t>学籍番号記入兼ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2661,7 +2668,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2858</xdr:colOff>
+      <xdr:colOff>3852</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>117158</xdr:rowOff>
     </xdr:from>
@@ -2669,7 +2676,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>17146</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>21204</xdr:rowOff>
+      <xdr:rowOff>185531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2687,13 +2694,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="96079" y="3963477"/>
-          <a:ext cx="4857046" cy="14288"/>
+          <a:off x="-36939" y="4080593"/>
+          <a:ext cx="5064442" cy="13294"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3452"/>
-            <a:gd name="adj2" fmla="val -12939544"/>
+            <a:gd name="adj1" fmla="val -3860"/>
+            <a:gd name="adj2" fmla="val -12488717"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2719,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>9607</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>4351</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>18223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>142129</xdr:colOff>
+      <xdr:rowOff>71233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>105244</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>105355</xdr:rowOff>
+      <xdr:rowOff>158365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2743,8 +2750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14421346" y="3954119"/>
-          <a:ext cx="2286000" cy="1240071"/>
+          <a:off x="11434351" y="4077176"/>
+          <a:ext cx="2386893" cy="1262789"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2807,16 +2814,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>36113</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>121730</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>105934</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>132992</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72224</xdr:rowOff>
+      <xdr:rowOff>119755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>57820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2834,8 +2841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="16365138" y="3204596"/>
-          <a:ext cx="734916" cy="1256444"/>
+          <a:off x="13577418" y="3275667"/>
+          <a:ext cx="854280" cy="1261307"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2866,16 +2873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>128876</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>137107</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>25124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>90515</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>58119</xdr:rowOff>
+      <xdr:rowOff>6627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2890,8 +2897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16859746" y="4200276"/>
-          <a:ext cx="1002144" cy="754521"/>
+          <a:off x="14105559" y="4333461"/>
+          <a:ext cx="1059304" cy="569844"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2938,7 +2945,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>記入ミスポップアップだすか、空白で出す</a:t>
+            <a:t>空白で出す</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
             <a:solidFill>
@@ -2954,16 +2961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>142129</xdr:colOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>105244</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>61790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>128876</xdr:colOff>
+      <xdr:rowOff>106018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>25124</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>65172</xdr:rowOff>
+      <xdr:rowOff>114800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2980,9 +2987,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16707346" y="4574155"/>
-          <a:ext cx="152400" cy="3382"/>
+        <a:xfrm flipV="1">
+          <a:off x="14020027" y="4618383"/>
+          <a:ext cx="85532" cy="8782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3013,14 +3020,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>141385</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>32529</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>147595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>34455</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>88884</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>179564</xdr:rowOff>
     </xdr:to>
@@ -3037,8 +3044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11405733" y="3122708"/>
-          <a:ext cx="1052635" cy="608439"/>
+          <a:off x="10156243" y="3173824"/>
+          <a:ext cx="1036070" cy="619797"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3078,6 +3085,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -3085,7 +3102,27 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員番号記入兼削除ボタン</a:t>
+            <a:t>記入兼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3094,14 +3131,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>123005</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>14148</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>41507</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>95936</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>169720</xdr:rowOff>
     </xdr:to>
@@ -3118,8 +3155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11390095" y="3885724"/>
-          <a:ext cx="1431991" cy="540686"/>
+          <a:off x="9974577" y="4013350"/>
+          <a:ext cx="1388073" cy="554199"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3195,14 +3232,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>161243</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>60348</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>33794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>5094</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>60707</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>147595</xdr:rowOff>
     </xdr:to>
@@ -3222,8 +3259,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11922547" y="2816751"/>
-          <a:ext cx="9504" cy="305957"/>
+          <a:off x="10673919" y="2864080"/>
+          <a:ext cx="359" cy="309744"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3352,16 +3389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>52252</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:rowOff>14862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66380</xdr:rowOff>
+      <xdr:rowOff>79632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3376,8 +3413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505303" y="2962524"/>
-          <a:ext cx="2277291" cy="639536"/>
+          <a:off x="6255025" y="2989975"/>
+          <a:ext cx="2392017" cy="641240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3434,27 +3471,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・苗字・名前・住所・電話番号</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>記入画面</a:t>
+            <a:t>・学籍番号・苗字・名前・住所・電話番号入力し、変更ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3545,7 +3562,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・苗字・名前・住所・電話番号は埋まっているか</a:t>
+            <a:t>・学籍番号・苗字・名前・住所・電話番号は埋まっているか</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -3585,8 +3602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9033156" y="3953834"/>
-          <a:ext cx="953916" cy="543266"/>
+          <a:off x="8812412" y="3970873"/>
+          <a:ext cx="933092" cy="544969"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3780,8 +3797,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>164307</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190090</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>904</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3804,7 +3821,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 42889"/>
+            <a:gd name="adj1" fmla="val 42888"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3862,7 +3879,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 42478"/>
+            <a:gd name="adj1" fmla="val 42342"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3889,15 +3906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>163791</xdr:colOff>
+      <xdr:colOff>162606</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>161244</xdr:colOff>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>60348</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>168965</xdr:rowOff>
+      <xdr:rowOff>168966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3915,12 +3932,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7459164" y="-2280088"/>
-          <a:ext cx="315401" cy="8611366"/>
+          <a:off x="6809883" y="-1648556"/>
+          <a:ext cx="319188" cy="7408884"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 45798"/>
+            <a:gd name="adj1" fmla="val 48618"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3947,15 +3964,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>163791</xdr:colOff>
+      <xdr:colOff>162606</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>162336</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>169584</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>57935</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3973,12 +3990,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9185496" y="-4006420"/>
-          <a:ext cx="508177" cy="12256806"/>
+          <a:off x="7797063" y="-2635736"/>
+          <a:ext cx="301844" cy="9365900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 29138"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4004,14 +4021,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>102744</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>157173</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>11181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>66548</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>120977</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>32138</xdr:rowOff>
     </xdr:to>
@@ -4028,8 +4045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11369834" y="4646243"/>
-          <a:ext cx="1477293" cy="588516"/>
+          <a:off x="9954316" y="4800895"/>
+          <a:ext cx="1433375" cy="608786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4078,7 +4095,27 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>指定された会員番号の情報を削除する。</a:t>
+            <a:t>指定された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の情報を削除する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -4094,14 +4131,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>113638</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>13926</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>41507</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>95936</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>88564</xdr:rowOff>
     </xdr:to>
@@ -4121,12 +4158,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12726052" y="2466208"/>
-          <a:ext cx="96034" cy="1689859"/>
+          <a:off x="11280640" y="2539780"/>
+          <a:ext cx="82010" cy="1750670"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -303707"/>
+            <a:gd name="adj1" fmla="val -278746"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4155,14 +4192,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>166339</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>55043</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>169720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>564</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>57433</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>11181</xdr:rowOff>
     </xdr:to>
@@ -4182,8 +4219,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12106091" y="4426410"/>
-          <a:ext cx="2390" cy="219833"/>
+          <a:off x="10668614" y="4567549"/>
+          <a:ext cx="2390" cy="233346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4211,16 +4248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1894</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>162338</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>50112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>2178</xdr:colOff>
+      <xdr:colOff>3976</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1610</xdr:rowOff>
+      <xdr:rowOff>14862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4237,9 +4274,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7643665" y="2819438"/>
-          <a:ext cx="284" cy="143086"/>
+        <a:xfrm flipH="1">
+          <a:off x="7451034" y="2833069"/>
+          <a:ext cx="7290" cy="156906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4326,14 +4363,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>162338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>1633</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>2178</xdr:colOff>
+      <xdr:colOff>3715</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:to>
@@ -4352,9 +4389,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7643404" y="3602060"/>
-          <a:ext cx="545" cy="705939"/>
+        <a:xfrm>
+          <a:off x="7451034" y="3631215"/>
+          <a:ext cx="7029" cy="694959"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4382,14 +4419,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>129789</xdr:rowOff>
+      <xdr:rowOff>143325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>354</xdr:colOff>
+      <xdr:colOff>2436</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>34977</xdr:rowOff>
     </xdr:to>
@@ -4409,13 +4446,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="8810583" y="3254303"/>
-          <a:ext cx="671542" cy="727520"/>
+          <a:off x="8632861" y="3324776"/>
+          <a:ext cx="660278" cy="631916"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4467,6 +4507,1966 @@
         <a:xfrm>
           <a:off x="7643404" y="5621383"/>
           <a:ext cx="2314" cy="231025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>100577</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951C75A4-9761-46D1-856D-CEDC6C9DBC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15909146" y="2215662"/>
+          <a:ext cx="1493762" cy="758360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベース作成・削除画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165956</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>167520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E915233-74F8-489F-9A7D-A7F4EEB17064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="95" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9852344" y="-4588022"/>
+          <a:ext cx="347003" cy="13260364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43299"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>93785</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>42508</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17AFF3C-7802-4ADD-AF7A-9856E0FBB054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15902354" y="3944816"/>
+          <a:ext cx="1138616" cy="662354"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベース作成ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E330AE04-F03F-411A-922F-01E17B866B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15758160" y="7335861"/>
+          <a:ext cx="1341119" cy="360925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベース作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>137600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>22859</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="正方形/長方形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B90710D-4FD9-4C8B-894F-909EF7370740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17572160" y="8109651"/>
+          <a:ext cx="1394019" cy="349894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベース削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>128955</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="フローチャート: 判断 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F690A8-80B7-4FDA-96ED-904D95C2286D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16107509" y="5695657"/>
+          <a:ext cx="2450122" cy="1168204"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード一致</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(true)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>しているか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>35170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>153878</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72579D5-3DE5-400E-BD41-E4F3FF1F2F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17543585" y="3944816"/>
+          <a:ext cx="1138616" cy="662354"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベース削除ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>74002</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB12F65-D2A4-469B-A39A-8BDA90581EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16052556" y="3163765"/>
+          <a:ext cx="1209674" cy="548793"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード記入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>11723</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA73038C-80C2-4E75-A343-DEFAC764BE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16500231" y="4934973"/>
+          <a:ext cx="1688123" cy="569011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワード一致確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ＴＲＵＥ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>orFALSE)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>167519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>168885</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線矢印コネクタ 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C055B969-142D-4B28-B341-3C8130BE7FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="2"/>
+          <a:endCxn id="186" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16656027" y="2974022"/>
+          <a:ext cx="1366" cy="189743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>153139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>168885</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F578DA28-FB4E-41A5-983F-E8DDB12F4BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="186" idx="2"/>
+          <a:endCxn id="179" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16471662" y="3712558"/>
+          <a:ext cx="185731" cy="232258"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>168885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>94524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直線矢印コネクタ 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A35A00-D0FC-4C7D-81C8-13276D26FD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="186" idx="2"/>
+          <a:endCxn id="185" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16657393" y="3712558"/>
+          <a:ext cx="1455500" cy="232258"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>153139</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直線矢印コネクタ 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCC903F-8FEC-49E5-BF25-69B15865282F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="2"/>
+          <a:endCxn id="187" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16471662" y="4607170"/>
+          <a:ext cx="872631" cy="327803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>94524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線矢印コネクタ 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE76A4D2-65B3-4BBF-A872-441D820B3795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="2"/>
+          <a:endCxn id="187" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17344293" y="4607170"/>
+          <a:ext cx="768600" cy="327803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>164124</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直線矢印コネクタ 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72441EBD-953B-4B50-9436-9A02C80F498D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="183" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17332570" y="5503984"/>
+          <a:ext cx="11723" cy="191673"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>70340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>741</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="コネクタ: カギ線 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9C8D0A-E3BD-49EB-B086-3A40763B37E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="203" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="18511185" y="5581943"/>
+          <a:ext cx="785295" cy="610340"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>32240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>139225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8705264-F841-4D67-A507-C417511A4C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18730548" y="4945673"/>
+          <a:ext cx="956908" cy="548792"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パスワードが合っていません</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>64478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>191611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>741</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="コネクタ: カギ線 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E4BF27-90B9-488E-8ECA-F41B78B45827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="0"/>
+          <a:endCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="17130540" y="2867211"/>
+          <a:ext cx="2350831" cy="1806094"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>162952</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="コネクタ: カギ線 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FF455E-AA62-4CD4-9276-C949EC226BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="2"/>
+          <a:endCxn id="181" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16479057" y="6720326"/>
+          <a:ext cx="565198" cy="665872"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31125"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>162952</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>178639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="コネクタ: カギ線 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EB4251-A037-48CC-91CA-E848D42A8EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="2"/>
+          <a:endCxn id="225" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17506873" y="6358382"/>
+          <a:ext cx="357416" cy="1181978"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>178639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DBA59D-193A-45C7-B650-5EA202789199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17693640" y="7128079"/>
+          <a:ext cx="1165860" cy="542930"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>本当に消しますか？（確認）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>164050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直線矢印コネクタ 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C3399E-5513-4300-8291-4261B0C7936D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="2"/>
+          <a:endCxn id="182" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18269170" y="7671009"/>
+          <a:ext cx="7400" cy="438642"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="コネクタ: カギ線 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36818AE8-DC80-4DE7-9976-8CDE142E676C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="3"/>
+          <a:endCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17163757" y="2567586"/>
+          <a:ext cx="1695743" cy="4831958"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44936"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164783</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="コネクタ: カギ線 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5780468F-B1F8-4F91-A3D9-A3CE48D48934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="181" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6657206" y="-2074727"/>
+          <a:ext cx="6464251" cy="13078777"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18035"/>
+            <a:gd name="adj2" fmla="val -30675"/>
+            <a:gd name="adj3" fmla="val 102947"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>36821</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>6029</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="コネクタ: カギ線 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B74C360-1E81-4923-A81A-A8745ACEECC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5253373" y="4265548"/>
+          <a:ext cx="3947843" cy="466165"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5791"/>
+            <a:gd name="adj2" fmla="val 391268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>106768</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>56249</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="コネクタ: カギ線 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B383F371-C993-47AA-8916-37B1D3902773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="2"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9111043" y="3600533"/>
+          <a:ext cx="2813105" cy="612089"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8126"/>
+            <a:gd name="adj2" fmla="val 144268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>150496</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="正方形/長方形 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF16458C-1C5B-4A7A-B6E4-5B06008F8E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11911800" y="5672509"/>
+          <a:ext cx="1804199" cy="383734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>該当データを表示させる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>54798</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>58683</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="直線矢印コネクタ 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B9C135-C7C7-4B9B-B1D7-E4B23B0C86E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="271" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12810015" y="5247200"/>
+          <a:ext cx="3885" cy="425309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4803,10 +6803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY43"/>
+  <dimension ref="A1:BY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T20" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BI24" sqref="BI24"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CL30" sqref="CL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4815,144 +6815,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="29" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="17" t="s">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="18" t="s">
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
     </row>
     <row r="2" spans="1:76" ht="18.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="17" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="22">
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="27">
         <v>44861</v>
       </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="30">
+        <v>44952</v>
+      </c>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
     </row>
     <row r="3" spans="1:76" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -5226,279 +7230,275 @@
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1">
       <c r="BI30" s="6"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
-      <c r="BN30" s="8"/>
-      <c r="BO30" s="8"/>
-      <c r="BP30" s="8"/>
-      <c r="BQ30" s="8"/>
-      <c r="BR30" s="8"/>
-      <c r="BS30" s="8"/>
-      <c r="BT30" s="8"/>
-      <c r="BU30" s="8"/>
-      <c r="BV30" s="8"/>
-      <c r="BW30" s="8"/>
-      <c r="BX30" s="8"/>
-      <c r="BY30" s="9"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1">
       <c r="BI31" s="6"/>
-      <c r="BJ31" s="10"/>
-      <c r="BK31" s="6"/>
-      <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
-      <c r="BU31" s="6"/>
-      <c r="BV31" s="6"/>
-      <c r="BW31" s="6"/>
-      <c r="BX31" s="6"/>
-      <c r="BY31" s="11"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1">
       <c r="BI32" s="6"/>
-      <c r="BJ32" s="10"/>
-      <c r="BK32" s="6"/>
-      <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
-      <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="6"/>
-      <c r="BQ32" s="6"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="6"/>
-      <c r="BT32" s="6"/>
-      <c r="BU32" s="6"/>
-      <c r="BV32" s="6"/>
-      <c r="BW32" s="6"/>
-      <c r="BX32" s="6"/>
-      <c r="BY32" s="11"/>
     </row>
-    <row r="33" spans="61:77" ht="15" customHeight="1">
+    <row r="33" spans="52:67" ht="15" customHeight="1">
       <c r="BI33" s="6"/>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="6"/>
-      <c r="BL33" s="6"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="6"/>
-      <c r="BO33" s="6"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="6"/>
-      <c r="BU33" s="6"/>
-      <c r="BV33" s="6"/>
-      <c r="BW33" s="6"/>
-      <c r="BX33" s="6"/>
-      <c r="BY33" s="11"/>
     </row>
-    <row r="34" spans="61:77" ht="15" customHeight="1">
+    <row r="34" spans="52:67" ht="15" customHeight="1">
       <c r="BI34" s="6"/>
-      <c r="BJ34" s="10"/>
-      <c r="BK34" s="6"/>
-      <c r="BL34" s="6"/>
-      <c r="BM34" s="6"/>
-      <c r="BN34" s="6"/>
-      <c r="BO34" s="6"/>
-      <c r="BP34" s="6"/>
-      <c r="BQ34" s="6"/>
-      <c r="BR34" s="6"/>
-      <c r="BS34" s="6"/>
-      <c r="BT34" s="6"/>
-      <c r="BU34" s="6"/>
-      <c r="BV34" s="6"/>
-      <c r="BW34" s="6"/>
-      <c r="BX34" s="6"/>
-      <c r="BY34" s="11"/>
     </row>
-    <row r="35" spans="61:77" ht="15" customHeight="1">
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="10"/>
-      <c r="BK35" s="6"/>
-      <c r="BL35" s="6"/>
-      <c r="BM35" s="6"/>
-      <c r="BN35" s="6"/>
-      <c r="BO35" s="6"/>
-      <c r="BP35" s="6"/>
-      <c r="BQ35" s="6"/>
-      <c r="BR35" s="6"/>
-      <c r="BS35" s="6"/>
-      <c r="BT35" s="6"/>
-      <c r="BU35" s="6"/>
-      <c r="BV35" s="6"/>
-      <c r="BW35" s="6"/>
-      <c r="BX35" s="6"/>
-      <c r="BY35" s="11"/>
+    <row r="35" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="8"/>
+      <c r="BK35" s="8"/>
+      <c r="BL35" s="8"/>
+      <c r="BM35" s="8"/>
+      <c r="BN35" s="8"/>
+      <c r="BO35" s="9"/>
     </row>
-    <row r="36" spans="61:77" ht="15" customHeight="1">
+    <row r="36" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
       <c r="BI36" s="6"/>
-      <c r="BJ36" s="10"/>
+      <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="6"/>
       <c r="BM36" s="6"/>
       <c r="BN36" s="6"/>
-      <c r="BO36" s="6"/>
-      <c r="BP36" s="6"/>
-      <c r="BQ36" s="6"/>
-      <c r="BR36" s="6"/>
-      <c r="BS36" s="6"/>
-      <c r="BT36" s="6"/>
-      <c r="BU36" s="6"/>
-      <c r="BV36" s="6"/>
-      <c r="BW36" s="6"/>
-      <c r="BX36" s="6"/>
-      <c r="BY36" s="11"/>
+      <c r="BO36" s="11"/>
     </row>
-    <row r="37" spans="61:77" ht="15" customHeight="1">
+    <row r="37" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6"/>
       <c r="BI37" s="6"/>
-      <c r="BJ37" s="10"/>
+      <c r="BJ37" s="6"/>
       <c r="BK37" s="6"/>
       <c r="BL37" s="6"/>
       <c r="BM37" s="6"/>
       <c r="BN37" s="6"/>
-      <c r="BO37" s="6"/>
-      <c r="BP37" s="6"/>
-      <c r="BQ37" s="6"/>
-      <c r="BR37" s="6"/>
-      <c r="BS37" s="6"/>
-      <c r="BT37" s="6"/>
-      <c r="BU37" s="6"/>
-      <c r="BV37" s="6"/>
-      <c r="BW37" s="6"/>
-      <c r="BX37" s="6"/>
-      <c r="BY37" s="11"/>
+      <c r="BO37" s="11"/>
     </row>
-    <row r="38" spans="61:77" ht="15" customHeight="1">
+    <row r="38" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
       <c r="BI38" s="6"/>
-      <c r="BJ38" s="10"/>
+      <c r="BJ38" s="6"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="6"/>
       <c r="BM38" s="6"/>
       <c r="BN38" s="6"/>
-      <c r="BO38" s="6"/>
-      <c r="BP38" s="6"/>
-      <c r="BQ38" s="6"/>
-      <c r="BR38" s="6"/>
-      <c r="BS38" s="6"/>
-      <c r="BT38" s="6"/>
-      <c r="BU38" s="6"/>
-      <c r="BV38" s="6"/>
-      <c r="BW38" s="6"/>
-      <c r="BX38" s="6"/>
-      <c r="BY38" s="11"/>
+      <c r="BO38" s="11"/>
     </row>
-    <row r="39" spans="61:77" ht="15" customHeight="1">
+    <row r="39" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6"/>
+      <c r="BE39" s="6"/>
+      <c r="BF39" s="6"/>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="6"/>
       <c r="BI39" s="6"/>
-      <c r="BJ39" s="10"/>
+      <c r="BJ39" s="6"/>
       <c r="BK39" s="6"/>
       <c r="BL39" s="6"/>
       <c r="BM39" s="6"/>
       <c r="BN39" s="6"/>
-      <c r="BO39" s="6"/>
-      <c r="BP39" s="6"/>
-      <c r="BQ39" s="6"/>
-      <c r="BR39" s="6"/>
-      <c r="BS39" s="6"/>
-      <c r="BT39" s="6"/>
-      <c r="BU39" s="6"/>
-      <c r="BV39" s="6"/>
-      <c r="BW39" s="6"/>
-      <c r="BX39" s="6"/>
-      <c r="BY39" s="11"/>
+      <c r="BO39" s="11"/>
     </row>
-    <row r="40" spans="61:77" ht="15" customHeight="1">
+    <row r="40" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
       <c r="BI40" s="6"/>
-      <c r="BJ40" s="10"/>
+      <c r="BJ40" s="6"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="6"/>
       <c r="BM40" s="6"/>
       <c r="BN40" s="6"/>
-      <c r="BO40" s="6"/>
-      <c r="BP40" s="6"/>
-      <c r="BQ40" s="6"/>
-      <c r="BR40" s="6"/>
-      <c r="BS40" s="6"/>
-      <c r="BT40" s="6"/>
-      <c r="BU40" s="6"/>
-      <c r="BV40" s="6"/>
-      <c r="BW40" s="6"/>
-      <c r="BX40" s="6"/>
-      <c r="BY40" s="11"/>
+      <c r="BO40" s="11"/>
     </row>
-    <row r="41" spans="61:77" ht="15" customHeight="1">
+    <row r="41" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6"/>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="6"/>
+      <c r="BF41" s="6"/>
+      <c r="BG41" s="6"/>
+      <c r="BH41" s="6"/>
       <c r="BI41" s="6"/>
-      <c r="BJ41" s="10"/>
+      <c r="BJ41" s="6"/>
       <c r="BK41" s="6"/>
       <c r="BL41" s="6"/>
       <c r="BM41" s="6"/>
       <c r="BN41" s="6"/>
-      <c r="BO41" s="6"/>
-      <c r="BP41" s="6"/>
-      <c r="BQ41" s="6"/>
-      <c r="BR41" s="6"/>
-      <c r="BS41" s="6"/>
-      <c r="BT41" s="6"/>
-      <c r="BU41" s="6"/>
-      <c r="BV41" s="6"/>
-      <c r="BW41" s="6"/>
-      <c r="BX41" s="6"/>
-      <c r="BY41" s="11"/>
+      <c r="BO41" s="11"/>
     </row>
-    <row r="42" spans="61:77" ht="15" customHeight="1">
+    <row r="42" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="6"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="6"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="6"/>
+      <c r="BF42" s="6"/>
+      <c r="BG42" s="6"/>
+      <c r="BH42" s="6"/>
       <c r="BI42" s="6"/>
-      <c r="BJ42" s="10"/>
+      <c r="BJ42" s="6"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="6"/>
       <c r="BM42" s="6"/>
       <c r="BN42" s="6"/>
-      <c r="BO42" s="6"/>
-      <c r="BP42" s="6"/>
-      <c r="BQ42" s="6"/>
-      <c r="BR42" s="6"/>
-      <c r="BS42" s="6"/>
-      <c r="BT42" s="6"/>
-      <c r="BU42" s="6"/>
-      <c r="BV42" s="6"/>
-      <c r="BW42" s="6"/>
-      <c r="BX42" s="6"/>
-      <c r="BY42" s="11"/>
+      <c r="BO42" s="11"/>
     </row>
-    <row r="43" spans="61:77" ht="15" customHeight="1">
+    <row r="43" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="6"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
+      <c r="BF43" s="6"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="6"/>
       <c r="BI43" s="6"/>
-      <c r="BJ43" s="12"/>
-      <c r="BK43" s="13"/>
-      <c r="BL43" s="13"/>
-      <c r="BM43" s="13"/>
-      <c r="BN43" s="13"/>
-      <c r="BO43" s="13"/>
-      <c r="BP43" s="13"/>
-      <c r="BQ43" s="13"/>
-      <c r="BR43" s="13"/>
-      <c r="BS43" s="13"/>
-      <c r="BT43" s="13"/>
-      <c r="BU43" s="13"/>
-      <c r="BV43" s="13"/>
-      <c r="BW43" s="13"/>
-      <c r="BX43" s="13"/>
-      <c r="BY43" s="14"/>
+      <c r="BJ43" s="6"/>
+      <c r="BK43" s="6"/>
+      <c r="BL43" s="6"/>
+      <c r="BM43" s="6"/>
+      <c r="BN43" s="6"/>
+      <c r="BO43" s="11"/>
+    </row>
+    <row r="44" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="6"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="6"/>
+      <c r="BL44" s="6"/>
+      <c r="BM44" s="6"/>
+      <c r="BN44" s="6"/>
+      <c r="BO44" s="11"/>
+    </row>
+    <row r="45" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="6"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="6"/>
+      <c r="BK45" s="6"/>
+      <c r="BL45" s="6"/>
+      <c r="BM45" s="6"/>
+      <c r="BN45" s="6"/>
+      <c r="BO45" s="11"/>
+    </row>
+    <row r="46" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="6"/>
+      <c r="BM46" s="6"/>
+      <c r="BN46" s="6"/>
+      <c r="BO46" s="11"/>
+    </row>
+    <row r="47" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="6"/>
+      <c r="BK47" s="6"/>
+      <c r="BL47" s="6"/>
+      <c r="BM47" s="6"/>
+      <c r="BN47" s="6"/>
+      <c r="BO47" s="11"/>
+    </row>
+    <row r="48" spans="52:67" ht="15" customHeight="1">
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="13"/>
+      <c r="BE48" s="13"/>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="13"/>
+      <c r="BH48" s="13"/>
+      <c r="BI48" s="13"/>
+      <c r="BJ48" s="13"/>
+      <c r="BK48" s="13"/>
+      <c r="BL48" s="13"/>
+      <c r="BM48" s="13"/>
+      <c r="BN48" s="13"/>
+      <c r="BO48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -5507,6 +7507,11 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
+++ b/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC67434-7B02-4DAE-8A03-053A0F0A80CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B067B-91E2-4BCC-9DFC-7ACDFD7677A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="143" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,72 +165,26 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -313,13 +267,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -339,6 +457,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,11 +481,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -363,52 +508,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6805,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CL30" sqref="CL30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6815,148 +6972,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="18.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="24" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="21" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="23" t="s">
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="22" t="s">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="23" t="s">
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="18"/>
     </row>
-    <row r="2" spans="1:76" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
+    <row r="2" spans="1:76" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="22" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="27">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="28">
         <v>44861</v>
       </c>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="22" t="s">
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="30">
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="19">
         <v>44952</v>
       </c>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="21"/>
     </row>
     <row r="3" spans="1:76" ht="15" customHeight="1">
       <c r="A3" s="2"/>

--- a/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
+++ b/G2A223長谷川沙羅/設計書/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B067B-91E2-4BCC-9DFC-7ACDFD7677A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0493E9-5520-4B72-ADAC-B31A9885FDEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="143" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,6 +487,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,12 +566,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2972,13 +2972,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>121730</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119755</xdr:rowOff>
+      <xdr:colOff>59685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>57820</xdr:colOff>
+      <xdr:colOff>164501</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:to>
@@ -2993,13 +2993,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="151" idx="0"/>
-          <a:endCxn id="112" idx="3"/>
+          <a:endCxn id="16" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="13577418" y="3275667"/>
-          <a:ext cx="854280" cy="1261307"/>
+          <a:off x="13334318" y="2713190"/>
+          <a:ext cx="1719069" cy="1445936"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3031,13 +3031,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>85</xdr:col>
-      <xdr:colOff>25124</xdr:colOff>
+      <xdr:colOff>131804</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>90515</xdr:colOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>29555</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>6627</xdr:rowOff>
     </xdr:to>
@@ -3054,8 +3054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14105559" y="4333461"/>
-          <a:ext cx="1059304" cy="569844"/>
+          <a:off x="14381204" y="4295692"/>
+          <a:ext cx="1071231" cy="564875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3121,13 +3121,13 @@
       <xdr:col>84</xdr:col>
       <xdr:colOff>105244</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>106018</xdr:rowOff>
+      <xdr:rowOff>105190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>85</xdr:col>
-      <xdr:colOff>25124</xdr:colOff>
+      <xdr:colOff>131804</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114800</xdr:rowOff>
+      <xdr:rowOff>114799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3145,8 +3145,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14020027" y="4618383"/>
-          <a:ext cx="85532" cy="8782"/>
+          <a:off x="14187004" y="4578130"/>
+          <a:ext cx="194200" cy="9609"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6962,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CI33" sqref="CI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6972,148 +6972,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="35" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="22" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="17" t="s">
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="43" t="s">
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="17" t="s">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="18"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="20"/>
     </row>
     <row r="2" spans="1:76" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="38" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="28">
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="30">
         <v>44861</v>
       </c>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="42" t="s">
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="19">
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="21">
         <v>44952</v>
       </c>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="21"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="23"/>
     </row>
     <row r="3" spans="1:76" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -7656,6 +7656,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -7664,11 +7669,6 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
